--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ptgs2-Cav1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ptgs2-Cav1.xlsx
@@ -534,16 +534,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>289.517763</v>
+        <v>0.04553166666666666</v>
       </c>
       <c r="H2">
-        <v>868.5532889999999</v>
+        <v>0.136595</v>
       </c>
       <c r="I2">
-        <v>0.9566760164508704</v>
+        <v>0.003566186696759492</v>
       </c>
       <c r="J2">
-        <v>0.9566760164508704</v>
+        <v>0.003566186696759492</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>505.8908573333333</v>
+        <v>568.5612486666666</v>
       </c>
       <c r="N2">
-        <v>1517.672572</v>
+        <v>1705.683746</v>
       </c>
       <c r="O2">
-        <v>0.7018211771568338</v>
+        <v>0.6737621253161296</v>
       </c>
       <c r="P2">
-        <v>0.7018211771568338</v>
+        <v>0.6737621253161296</v>
       </c>
       <c r="Q2">
-        <v>146464.3893372988</v>
+        <v>25.88754125387444</v>
       </c>
       <c r="R2">
-        <v>1318179.504035689</v>
+        <v>232.98787128487</v>
       </c>
       <c r="S2">
-        <v>0.6714154880232603</v>
+        <v>0.002402761528082783</v>
       </c>
       <c r="T2">
-        <v>0.6714154880232603</v>
+        <v>0.002402761528082783</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>289.517763</v>
+        <v>0.04553166666666666</v>
       </c>
       <c r="H3">
-        <v>868.5532889999999</v>
+        <v>0.136595</v>
       </c>
       <c r="I3">
-        <v>0.9566760164508704</v>
+        <v>0.003566186696759492</v>
       </c>
       <c r="J3">
-        <v>0.9566760164508704</v>
+        <v>0.003566186696759492</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>88.00803399999999</v>
+        <v>88.00803400000001</v>
       </c>
       <c r="N3">
         <v>264.024102</v>
       </c>
       <c r="O3">
-        <v>0.1220933352041997</v>
+        <v>0.1042921587987053</v>
       </c>
       <c r="P3">
-        <v>0.1220933352041997</v>
+        <v>0.1042921587987053</v>
       </c>
       <c r="Q3">
-        <v>25479.88912970794</v>
+        <v>4.007152468076667</v>
       </c>
       <c r="R3">
-        <v>229319.0021673715</v>
+        <v>36.06437221269</v>
       </c>
       <c r="S3">
-        <v>0.1168037655583546</v>
+        <v>0.0003719253092842714</v>
       </c>
       <c r="T3">
-        <v>0.1168037655583546</v>
+        <v>0.0003719253092842714</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>289.517763</v>
+        <v>0.04553166666666666</v>
       </c>
       <c r="H4">
-        <v>868.5532889999999</v>
+        <v>0.136595</v>
       </c>
       <c r="I4">
-        <v>0.9566760164508704</v>
+        <v>0.003566186696759492</v>
       </c>
       <c r="J4">
-        <v>0.9566760164508704</v>
+        <v>0.003566186696759492</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>126.926974</v>
+        <v>187.2912243333334</v>
       </c>
       <c r="N4">
-        <v>380.780922</v>
+        <v>561.8736730000001</v>
       </c>
       <c r="O4">
-        <v>0.1760854876389666</v>
+        <v>0.2219457158851651</v>
       </c>
       <c r="P4">
-        <v>0.1760854876389665</v>
+        <v>0.2219457158851651</v>
       </c>
       <c r="Q4">
-        <v>36747.61357683917</v>
+        <v>8.527681595937223</v>
       </c>
       <c r="R4">
-        <v>330728.5221915524</v>
+        <v>76.749134363435</v>
       </c>
       <c r="S4">
-        <v>0.1684567628692555</v>
+        <v>0.0007914998593924376</v>
       </c>
       <c r="T4">
-        <v>0.1684567628692555</v>
+        <v>0.0007914998593924375</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>38.131868</v>
       </c>
       <c r="I5">
-        <v>0.04200069706727046</v>
+        <v>0.9955368819077489</v>
       </c>
       <c r="J5">
-        <v>0.04200069706727047</v>
+        <v>0.995536881907749</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>505.8908573333333</v>
+        <v>568.5612486666666</v>
       </c>
       <c r="N5">
-        <v>1517.672572</v>
+        <v>1705.683746</v>
       </c>
       <c r="O5">
-        <v>0.7018211771568338</v>
+        <v>0.6737621253161296</v>
       </c>
       <c r="P5">
-        <v>0.7018211771568338</v>
+        <v>0.6737621253161296</v>
       </c>
       <c r="Q5">
-        <v>6430.187798080499</v>
+        <v>7226.767494690836</v>
       </c>
       <c r="R5">
-        <v>57871.69018272449</v>
+        <v>65040.90745221752</v>
       </c>
       <c r="S5">
-        <v>0.02947697865715933</v>
+        <v>0.6707550453847576</v>
       </c>
       <c r="T5">
-        <v>0.02947697865715934</v>
+        <v>0.6707550453847577</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>38.131868</v>
       </c>
       <c r="I6">
-        <v>0.04200069706727046</v>
+        <v>0.9955368819077489</v>
       </c>
       <c r="J6">
-        <v>0.04200069706727047</v>
+        <v>0.995536881907749</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>88.00803399999999</v>
+        <v>88.00803400000001</v>
       </c>
       <c r="N6">
         <v>264.024102</v>
       </c>
       <c r="O6">
-        <v>0.1220933352041997</v>
+        <v>0.1042921587987053</v>
       </c>
       <c r="P6">
-        <v>0.1220933352041997</v>
+        <v>0.1042921587987053</v>
       </c>
       <c r="Q6">
-        <v>1118.63691180917</v>
+        <v>1118.636911809171</v>
       </c>
       <c r="R6">
-        <v>10067.73220628253</v>
+        <v>10067.73220628254</v>
       </c>
       <c r="S6">
-        <v>0.005128005185844301</v>
+        <v>0.1038266905778909</v>
       </c>
       <c r="T6">
-        <v>0.005128005185844302</v>
+        <v>0.1038266905778909</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>38.131868</v>
       </c>
       <c r="I7">
-        <v>0.04200069706727046</v>
+        <v>0.9955368819077489</v>
       </c>
       <c r="J7">
-        <v>0.04200069706727047</v>
+        <v>0.995536881907749</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>126.926974</v>
+        <v>187.2912243333334</v>
       </c>
       <c r="N7">
-        <v>380.780922</v>
+        <v>561.8736730000001</v>
       </c>
       <c r="O7">
-        <v>0.1760854876389666</v>
+        <v>0.2219457158851651</v>
       </c>
       <c r="P7">
-        <v>0.1760854876389665</v>
+        <v>0.2219457158851651</v>
       </c>
       <c r="Q7">
-        <v>1613.320872735811</v>
+        <v>2380.588081279018</v>
       </c>
       <c r="R7">
-        <v>14519.8878546223</v>
+        <v>21425.29273151116</v>
       </c>
       <c r="S7">
-        <v>0.007395713224266832</v>
+        <v>0.2209551459451004</v>
       </c>
       <c r="T7">
-        <v>0.007395713224266832</v>
+        <v>0.2209551459451004</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,22 +900,22 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.4004646666666667</v>
+        <v>0.01145166666666667</v>
       </c>
       <c r="H8">
-        <v>1.201394</v>
+        <v>0.034355</v>
       </c>
       <c r="I8">
-        <v>0.00132328648185912</v>
+        <v>0.0008969313954915797</v>
       </c>
       <c r="J8">
-        <v>0.00132328648185912</v>
+        <v>0.0008969313954915798</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>505.8908573333333</v>
+        <v>568.5612486666666</v>
       </c>
       <c r="N8">
-        <v>1517.672572</v>
+        <v>1705.683746</v>
       </c>
       <c r="O8">
-        <v>0.7018211771568338</v>
+        <v>0.6737621253161296</v>
       </c>
       <c r="P8">
-        <v>0.7018211771568338</v>
+        <v>0.6737621253161296</v>
       </c>
       <c r="Q8">
-        <v>202.5914135517075</v>
+        <v>6.510973899314443</v>
       </c>
       <c r="R8">
-        <v>1823.322721965368</v>
+        <v>58.59876509382999</v>
       </c>
       <c r="S8">
-        <v>0.0009287104764140924</v>
+        <v>0.0006043184032891687</v>
       </c>
       <c r="T8">
-        <v>0.0009287104764140924</v>
+        <v>0.0006043184032891687</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,22 +962,22 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.4004646666666667</v>
+        <v>0.01145166666666667</v>
       </c>
       <c r="H9">
-        <v>1.201394</v>
+        <v>0.034355</v>
       </c>
       <c r="I9">
-        <v>0.00132328648185912</v>
+        <v>0.0008969313954915797</v>
       </c>
       <c r="J9">
-        <v>0.00132328648185912</v>
+        <v>0.0008969313954915798</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,28 +986,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>88.00803399999999</v>
+        <v>88.00803400000001</v>
       </c>
       <c r="N9">
         <v>264.024102</v>
       </c>
       <c r="O9">
-        <v>0.1220933352041997</v>
+        <v>0.1042921587987053</v>
       </c>
       <c r="P9">
-        <v>0.1220933352041997</v>
+        <v>0.1042921587987053</v>
       </c>
       <c r="Q9">
-        <v>35.24410799979866</v>
+        <v>1.007838669356667</v>
       </c>
       <c r="R9">
-        <v>317.196971998188</v>
+        <v>9.07054802421</v>
       </c>
       <c r="S9">
-        <v>0.0001615644600008117</v>
+        <v>9.354291153015221E-05</v>
       </c>
       <c r="T9">
-        <v>0.0001615644600008117</v>
+        <v>9.354291153015223E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,22 +1024,22 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.4004646666666667</v>
+        <v>0.01145166666666667</v>
       </c>
       <c r="H10">
-        <v>1.201394</v>
+        <v>0.034355</v>
       </c>
       <c r="I10">
-        <v>0.00132328648185912</v>
+        <v>0.0008969313954915797</v>
       </c>
       <c r="J10">
-        <v>0.00132328648185912</v>
+        <v>0.0008969313954915798</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>126.926974</v>
+        <v>187.2912243333334</v>
       </c>
       <c r="N10">
-        <v>380.780922</v>
+        <v>561.8736730000001</v>
       </c>
       <c r="O10">
-        <v>0.1760854876389666</v>
+        <v>0.2219457158851651</v>
       </c>
       <c r="P10">
-        <v>0.1760854876389665</v>
+        <v>0.2219457158851651</v>
       </c>
       <c r="Q10">
-        <v>50.82976833391868</v>
+        <v>2.144796670657222</v>
       </c>
       <c r="R10">
-        <v>457.4679150052681</v>
+        <v>19.303170035915</v>
       </c>
       <c r="S10">
-        <v>0.0002330115454442155</v>
+        <v>0.0001990700806722588</v>
       </c>
       <c r="T10">
-        <v>0.0002330115454442155</v>
+        <v>0.0001990700806722588</v>
       </c>
     </row>
   </sheetData>
